--- a/dados/LATLONG_exportadores.xlsx
+++ b/dados/LATLONG_exportadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c11bc1e1d9065ca4/PC/Área de Trabalho Meu Desktop/final_matopiba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF427FE-3722-43D4-9B79-45ADA4D18F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{DDF427FE-3722-43D4-9B79-45ADA4D18F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3AED89F-E87D-48B7-8B7B-9A0072D27BFC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>LONG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="132">
   <si>
     <t>EXPORTAÇÃO U$</t>
   </si>
@@ -330,23 +324,120 @@
     <t>165.443.912</t>
   </si>
   <si>
-    <t>LOCATION</t>
-  </si>
-  <si>
-    <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>CLOCATION</t>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>LOCALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>PAÍS</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>CLOCALIZAÇÃO</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Imperatriz, Maranhão, Brasil</t>
+  </si>
+  <si>
+    <t>Balsas, Maranhão,Brasil</t>
+  </si>
+  <si>
+    <t>Açailândia,Maranhão, Brasil</t>
+  </si>
+  <si>
+    <t>Porto Franco, Maranhão,Brasil</t>
+  </si>
+  <si>
+    <t>Tasso Fragoso, Maranhão,Brasil</t>
+  </si>
+  <si>
+    <t>Riachão,Maranhão, Brasil</t>
+  </si>
+  <si>
+    <t>Sambaíba, Maranhão,Brasil</t>
+  </si>
+  <si>
+    <t>Matões do Norte,Maranhão, Brasil</t>
+  </si>
+  <si>
+    <t>Pedro Afonso, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Porto Nacional, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Cariri do Tocantins, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Araguaína, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Gurupi,Tocantins,  Brasil</t>
+  </si>
+  <si>
+    <t>Campos Lindos,Tocantins,  Brasil</t>
+  </si>
+  <si>
+    <t>Guaraí, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Silvanópolis, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Palmas, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Colinas dos Tocantins, Tocantins, Brasil</t>
+  </si>
+  <si>
+    <t>Bom Jesus, Piauí, Brasil</t>
+  </si>
+  <si>
+    <t>Baixa Grande do Ribeiro, Piauí, Brasil</t>
+  </si>
+  <si>
+    <t>Uruçuí, Piauí, Brasil</t>
+  </si>
+  <si>
+    <t>Luís Eduardo Magalhães, Bahia, Brasil</t>
+  </si>
+  <si>
+    <t>Barreiras, Bahia, Brasil</t>
+  </si>
+  <si>
+    <t>Correntina, Bahia, Brasil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #.##0.00_ ;_-[$$-409]* \-#.##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +453,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +469,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -394,31 +492,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,546 +845,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="str">
-        <f>A2&amp;","&amp;" "&amp;B2</f>
-        <v>Imperatriz, Brazil</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F25" si="0">A3&amp;","&amp;" "&amp;B3</f>
-        <v>Balsas, Brazil</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>Açailândia, Brazil</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Porto Franco, Brazil</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>Tasso Fragoso, Brazil</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>Riachão, Brazil</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>Sambaíba, Brazil</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>Matões do Norte, Brazil</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>Pedro Afonso, Brazil</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>Porto Nacional, Brazil</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>Cariri do Tocantins, Brazil</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>Araguaína, Brazil</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>Gurupi, Brazil</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>Campos Lindos, Brazil</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>Guaraí, Brazil</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>Silvanópolis, Brazil</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>Palmas, Brazil</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="0"/>
-        <v>Colinas dos Tocantins, Brazil</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="0"/>
-        <v>Bom Jesus, Brazil</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="0"/>
-        <v>Baixa Grande do Ribeiro, Brazil</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>Uruçuí, Brazil</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
+        <v>129</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="0"/>
-        <v>Luís Eduardo Magalhães, Brazil</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
+        <v>130</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="0"/>
-        <v>Barreiras, Brazil</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="0"/>
-        <v>Correntina, Brazil</v>
+        <v>72</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>